--- a/docs/Games_IP.xlsx
+++ b/docs/Games_IP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paolopalmiero/Documents/Uni/Ricerca/UPSIDE/UPSIDE_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paolopalmiero/Documents/Uni/Ricerca/UPSIDE/UPSIDE_project/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C613387-6E85-164E-9BFB-9E77AA978064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710F854C-B343-874F-A370-2270BA2C600B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{58849AF0-658F-AB49-9B99-62D132B0AA73}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>192.168.0.2</t>
   </si>
   <si>
-    <t>10.0.0.3</t>
-  </si>
-  <si>
     <t>192.168.0.13</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>EAFC</t>
   </si>
   <si>
-    <t>10.0.0.4</t>
-  </si>
-  <si>
     <t>192.168.0.3</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>Chess</t>
   </si>
   <si>
-    <t>10.0.0.2</t>
-  </si>
-  <si>
     <t>MGMT</t>
   </si>
   <si>
@@ -183,13 +174,22 @@
     <t>192.168.0.50</t>
   </si>
   <si>
-    <t>10.0.0.5</t>
-  </si>
-  <si>
-    <t>10.0.0.1</t>
-  </si>
-  <si>
-    <t>10.0.0.0</t>
+    <t>10.1.0.0/16</t>
+  </si>
+  <si>
+    <t>10.3.0.0/16</t>
+  </si>
+  <si>
+    <t>10.2.0.0/16</t>
+  </si>
+  <si>
+    <t>10.4.0.0/16</t>
+  </si>
+  <si>
+    <t>10.5.0.0/16</t>
+  </si>
+  <si>
+    <t>10.6.0.0/16</t>
   </si>
 </sst>
 </file>
@@ -306,9 +306,14 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,15 +323,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,7 +664,7 @@
   <dimension ref="C2:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,11 +687,11 @@
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -702,73 +702,73 @@
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C4" s="8" t="s">
-        <v>31</v>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C5" s="4"/>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C6" s="4"/>
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C7" s="4"/>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C5" s="8"/>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C6" s="8"/>
-      <c r="D6" s="1" t="s">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C8" s="4"/>
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C7" s="8"/>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C8" s="8"/>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="3" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -779,53 +779,53 @@
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C9" s="8"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C10" s="4"/>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C11" s="4"/>
+      <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C10" s="8"/>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C11" s="8"/>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="10"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
@@ -834,28 +834,28 @@
       <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="10"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="3" t="s">
+      <c r="E13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -864,110 +864,110 @@
       <c r="I13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C14" s="8"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C15" s="4"/>
+      <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C16" s="4"/>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C17" s="4"/>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C15" s="8"/>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C16" s="8"/>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C17" s="8"/>
-      <c r="D17" s="1" t="s">
+      <c r="I17" s="4"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C18" s="4"/>
+      <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C18" s="8"/>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="7"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C19" s="4"/>
+      <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="6"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C19" s="8"/>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="7"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C20" s="4"/>
+      <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="6"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C20" s="8"/>
-      <c r="D20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="6"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="7"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
@@ -976,99 +976,123 @@
       <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="F21" s="7"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C22" s="8" t="s">
-        <v>21</v>
+      <c r="C22" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C23" s="4"/>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="7"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C24" s="4"/>
+      <c r="D24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="7"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C25" s="4"/>
+      <c r="D25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="7"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C26" s="4"/>
+      <c r="D26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="7"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C27" s="4"/>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C28" s="4"/>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="3:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+      <c r="D29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C23" s="8"/>
-      <c r="D23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="6"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C24" s="8"/>
-      <c r="D24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="6"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C25" s="8"/>
-      <c r="D25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="6"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C26" s="8"/>
-      <c r="D26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="6"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C27" s="8"/>
-      <c r="D27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C28" s="8"/>
-      <c r="D28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="3:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="8"/>
-      <c r="D29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="7"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
     <mergeCell ref="I4:I7"/>
     <mergeCell ref="I9:I12"/>
     <mergeCell ref="I14:I17"/>
@@ -1082,30 +1106,6 @@
     <mergeCell ref="E22:E29"/>
     <mergeCell ref="C13:C20"/>
     <mergeCell ref="E13:E20"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
